--- a/Workload Distribution.xlsx
+++ b/Workload Distribution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Younouss</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +603,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -611,6 +617,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -622,6 +631,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -677,6 +689,9 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -779,6 +794,9 @@
       <c r="C18">
         <v>4</v>
       </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -789,6 +807,9 @@
       </c>
       <c r="C19">
         <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">

--- a/Workload Distribution.xlsx
+++ b/Workload Distribution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -678,6 +684,9 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -690,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -703,6 +712,9 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -714,6 +726,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -782,6 +797,9 @@
       </c>
       <c r="C17">
         <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
